--- a/biology/Zoologie/Eukalyptorhynchia/Eukalyptorhynchia.xlsx
+++ b/biology/Zoologie/Eukalyptorhynchia/Eukalyptorhynchia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eukalyptorhynchia sont un infra-ordre de vers plats aquatiques du sous-ordre des Kalyptorhynchia (ordre des Rhabdocoela).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Eukalyptorhynchia Meixner (d), 1928[1].
-Sous-taxons
-Selon la base de données World Register of Marine Species                               (20 décembre 2023)[1], l'infra-ordre des Eukalyptorhynchia comprend les familles suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Eukalyptorhynchia Meixner (d), 1928.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eukalyptorhynchia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eukalyptorhynchia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-taxons</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (20 décembre 2023), l'infra-ordre des Eukalyptorhynchia comprend les familles suivantes :
 famille des Aculeorhynchidae Schilke, 1969
 famille des Bertiliellidae Rieger &amp; Sterrer, 1975
 famille des Cicerinidae Meixner, 1928
@@ -560,9 +611,43 @@
 genre Lekanorhynchus Meixner, 1938
 genre Marirhynchus Schilke, 1970
 genre Syatkinella Timoshkin, 2004
-genre Zonorhynchus Karling, 1952
-Synonymes, reclassements
-D'après World Register of Marine Species                               (20 décembre 2023)[1] :
+genre Zonorhynchus Karling, 1952</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eukalyptorhynchia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eukalyptorhynchia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (20 décembre 2023) :
 la famille des Acrumenidae Karling, 1980 est descendue en sous-famille des Acrumeninae Karling, 1980, de la famille des Cicerinidae ;
 la famille des Cytocystidae Karling, 1964 est synonyme de Cytocystididae Karling, 1964 ;
 la famille des Gyratricidae Graff, 1905 est descendue en sous-famille des Gyratricinae Graff, 1905, de la famille des Polycystididae ;
